--- a/lms.xlsx
+++ b/lms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\therd\OneDrive - Microsoft Co\Desktop\4-2\DBMI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Database\Activity2_Basic_LMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBE4EE6-8458-406E-B1F3-874488CD9752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A581E877-318F-4BCD-BCC4-C02157D8D84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DE5D4B8F-34A8-4EFF-9111-86E28CEEA054}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE5D4B8F-34A8-4EFF-9111-86E28CEEA054}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +221,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -279,14 +292,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -298,15 +317,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1382,7 +1397,7 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1411,40 +1426,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="J1" s="7" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="J1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="R1" s="5" t="s">
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="R1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="12"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="8"/>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
@@ -1456,25 +1471,25 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="13" t="s">
         <v>23</v>
       </c>
       <c r="O2" t="s">
@@ -1483,7 +1498,7 @@
       <c r="P2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="13" t="s">
         <v>24</v>
       </c>
       <c r="S2" t="s">
@@ -1495,10 +1510,10 @@
       <c r="U2" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="11"/>
+      <c r="AB2" s="7"/>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
@@ -1510,25 +1525,25 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="13" t="s">
         <v>41</v>
       </c>
       <c r="O3" t="s">
@@ -1537,7 +1552,7 @@
       <c r="P3">
         <v>3</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="13" t="s">
         <v>45</v>
       </c>
       <c r="S3" t="s">
@@ -1548,7 +1563,7 @@
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" t="s">
+      <c r="A4" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
@@ -1557,25 +1572,25 @@
       <c r="D4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="13" t="s">
         <v>42</v>
       </c>
       <c r="O4" t="s">
@@ -1584,7 +1599,7 @@
       <c r="P4">
         <v>2</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="13" t="s">
         <v>47</v>
       </c>
       <c r="S4" t="s">
@@ -1595,7 +1610,7 @@
       </c>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" t="s">
+      <c r="A5" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B5" t="s">
@@ -1604,25 +1619,25 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="13" t="s">
         <v>43</v>
       </c>
       <c r="O5" t="s">
@@ -1631,7 +1646,7 @@
       <c r="P5">
         <v>4</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="13" t="s">
         <v>48</v>
       </c>
       <c r="S5" t="s">
@@ -1642,7 +1657,7 @@
       </c>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" t="s">
+      <c r="A6" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
@@ -1651,25 +1666,25 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="13" t="s">
         <v>44</v>
       </c>
       <c r="O6" t="s">
@@ -1678,7 +1693,7 @@
       <c r="P6">
         <v>3</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="13" t="s">
         <v>46</v>
       </c>
       <c r="S6" t="s">
@@ -1692,7 +1707,7 @@
       </c>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" t="s">
+      <c r="A7" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B7" t="s">
@@ -1701,19 +1716,19 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="L10" s="1"/>
-      <c r="R10" s="10"/>
+      <c r="R10" s="6"/>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="3"/>
@@ -1754,7 +1769,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>